--- a/all_times_2/Runs_reports_static_lot/all_times_2_static_pnl_growth_report_TR3000_DD3000_SZ1_TDDTrue.xlsx
+++ b/all_times_2/Runs_reports_static_lot/all_times_2_static_pnl_growth_report_TR3000_DD3000_SZ1_TDDTrue.xlsx
@@ -123,10 +123,10 @@
     <t>Mode days to blowup</t>
   </si>
   <si>
-    <t>91.1%</t>
+    <t>91.2%</t>
   </si>
   <si>
-    <t>8.9%</t>
+    <t>8.8%</t>
   </si>
   <si>
     <t>Took_days</t>
@@ -495,7 +495,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1617"/>
+  <dimension ref="A1:I1651"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -538,7 +538,7 @@
         <v>96</v>
       </c>
       <c r="D2">
-        <v>193</v>
+        <v>137.5</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -40106,6 +40106,9 @@
       <c r="A1524" s="2">
         <v>45761</v>
       </c>
+      <c r="B1524">
+        <v>107</v>
+      </c>
       <c r="D1524">
         <v>0</v>
       </c>
@@ -40117,6 +40120,9 @@
       </c>
       <c r="G1524">
         <v>1</v>
+      </c>
+      <c r="H1524" s="2">
+        <v>45911</v>
       </c>
       <c r="I1524" t="b">
         <v>0</v>
@@ -40126,6 +40132,9 @@
       <c r="A1525" s="2">
         <v>45762</v>
       </c>
+      <c r="B1525">
+        <v>106</v>
+      </c>
       <c r="D1525">
         <v>0</v>
       </c>
@@ -40137,6 +40146,9 @@
       </c>
       <c r="G1525">
         <v>1</v>
+      </c>
+      <c r="H1525" s="2">
+        <v>45911</v>
       </c>
       <c r="I1525" t="b">
         <v>0</v>
@@ -40146,6 +40158,9 @@
       <c r="A1526" s="2">
         <v>45763</v>
       </c>
+      <c r="B1526">
+        <v>105</v>
+      </c>
       <c r="D1526">
         <v>0</v>
       </c>
@@ -40157,6 +40172,9 @@
       </c>
       <c r="G1526">
         <v>1</v>
+      </c>
+      <c r="H1526" s="2">
+        <v>45911</v>
       </c>
       <c r="I1526" t="b">
         <v>0</v>
@@ -40166,6 +40184,9 @@
       <c r="A1527" s="2">
         <v>45764</v>
       </c>
+      <c r="B1527">
+        <v>106</v>
+      </c>
       <c r="D1527">
         <v>151</v>
       </c>
@@ -40177,6 +40198,9 @@
       </c>
       <c r="G1527">
         <v>1</v>
+      </c>
+      <c r="H1527" s="2">
+        <v>45915</v>
       </c>
       <c r="I1527" t="b">
         <v>0</v>
@@ -40186,6 +40210,9 @@
       <c r="A1528" s="2">
         <v>45768</v>
       </c>
+      <c r="B1528">
+        <v>118</v>
+      </c>
       <c r="D1528">
         <v>379</v>
       </c>
@@ -40197,6 +40224,9 @@
       </c>
       <c r="G1528">
         <v>1</v>
+      </c>
+      <c r="H1528" s="2">
+        <v>45932</v>
       </c>
       <c r="I1528" t="b">
         <v>0</v>
@@ -40206,6 +40236,9 @@
       <c r="A1529" s="2">
         <v>45769</v>
       </c>
+      <c r="B1529">
+        <v>102</v>
+      </c>
       <c r="D1529">
         <v>0</v>
       </c>
@@ -40217,6 +40250,9 @@
       </c>
       <c r="G1529">
         <v>1</v>
+      </c>
+      <c r="H1529" s="2">
+        <v>45911</v>
       </c>
       <c r="I1529" t="b">
         <v>0</v>
@@ -40226,6 +40262,9 @@
       <c r="A1530" s="2">
         <v>45770</v>
       </c>
+      <c r="B1530">
+        <v>116</v>
+      </c>
       <c r="D1530">
         <v>339</v>
       </c>
@@ -40237,6 +40276,9 @@
       </c>
       <c r="G1530">
         <v>1</v>
+      </c>
+      <c r="H1530" s="2">
+        <v>45932</v>
       </c>
       <c r="I1530" t="b">
         <v>0</v>
@@ -40246,6 +40288,9 @@
       <c r="A1531" s="2">
         <v>45771</v>
       </c>
+      <c r="B1531">
+        <v>119</v>
+      </c>
       <c r="D1531">
         <v>598</v>
       </c>
@@ -40257,6 +40302,9 @@
       </c>
       <c r="G1531">
         <v>1</v>
+      </c>
+      <c r="H1531" s="2">
+        <v>45938</v>
       </c>
       <c r="I1531" t="b">
         <v>0</v>
@@ -40266,6 +40314,9 @@
       <c r="A1532" s="2">
         <v>45772</v>
       </c>
+      <c r="B1532">
+        <v>118</v>
+      </c>
       <c r="D1532">
         <v>614.5</v>
       </c>
@@ -40277,6 +40328,9 @@
       </c>
       <c r="G1532">
         <v>1</v>
+      </c>
+      <c r="H1532" s="2">
+        <v>45938</v>
       </c>
       <c r="I1532" t="b">
         <v>0</v>
@@ -40286,6 +40340,9 @@
       <c r="A1533" s="2">
         <v>45775</v>
       </c>
+      <c r="B1533">
+        <v>117</v>
+      </c>
       <c r="D1533">
         <v>534</v>
       </c>
@@ -40297,6 +40354,9 @@
       </c>
       <c r="G1533">
         <v>1</v>
+      </c>
+      <c r="H1533" s="2">
+        <v>45938</v>
       </c>
       <c r="I1533" t="b">
         <v>0</v>
@@ -40306,6 +40366,9 @@
       <c r="A1534" s="2">
         <v>45776</v>
       </c>
+      <c r="B1534">
+        <v>116</v>
+      </c>
       <c r="D1534">
         <v>775</v>
       </c>
@@ -40317,6 +40380,9 @@
       </c>
       <c r="G1534">
         <v>1</v>
+      </c>
+      <c r="H1534" s="2">
+        <v>45938</v>
       </c>
       <c r="I1534" t="b">
         <v>0</v>
@@ -40426,6 +40492,9 @@
       <c r="A1540" s="2">
         <v>45784</v>
       </c>
+      <c r="B1540">
+        <v>109</v>
+      </c>
       <c r="D1540">
         <v>465.5</v>
       </c>
@@ -40437,6 +40506,9 @@
       </c>
       <c r="G1540">
         <v>1</v>
+      </c>
+      <c r="H1540" s="2">
+        <v>45937</v>
       </c>
       <c r="I1540" t="b">
         <v>0</v>
@@ -40446,6 +40518,9 @@
       <c r="A1541" s="2">
         <v>45785</v>
       </c>
+      <c r="B1541">
+        <v>91</v>
+      </c>
       <c r="D1541">
         <v>0</v>
       </c>
@@ -40457,6 +40532,9 @@
       </c>
       <c r="G1541">
         <v>1</v>
+      </c>
+      <c r="H1541" s="2">
+        <v>45912</v>
       </c>
       <c r="I1541" t="b">
         <v>0</v>
@@ -40466,6 +40544,9 @@
       <c r="A1542" s="2">
         <v>45786</v>
       </c>
+      <c r="B1542">
+        <v>104</v>
+      </c>
       <c r="D1542">
         <v>0</v>
       </c>
@@ -40477,6 +40558,9 @@
       </c>
       <c r="G1542">
         <v>1</v>
+      </c>
+      <c r="H1542" s="2">
+        <v>45932</v>
       </c>
       <c r="I1542" t="b">
         <v>0</v>
@@ -40486,6 +40570,9 @@
       <c r="A1543" s="2">
         <v>45789</v>
       </c>
+      <c r="B1543">
+        <v>106</v>
+      </c>
       <c r="D1543">
         <v>0</v>
       </c>
@@ -40497,6 +40584,9 @@
       </c>
       <c r="G1543">
         <v>1</v>
+      </c>
+      <c r="H1543" s="2">
+        <v>45937</v>
       </c>
       <c r="I1543" t="b">
         <v>0</v>
@@ -41827,7 +41917,7 @@
         <v>45882</v>
       </c>
       <c r="D1610">
-        <v>0</v>
+        <v>144.5</v>
       </c>
       <c r="E1610">
         <v>1</v>
@@ -41847,7 +41937,7 @@
         <v>45883</v>
       </c>
       <c r="D1611">
-        <v>161</v>
+        <v>345</v>
       </c>
       <c r="E1611">
         <v>1</v>
@@ -41867,7 +41957,7 @@
         <v>45884</v>
       </c>
       <c r="D1612">
-        <v>142</v>
+        <v>326</v>
       </c>
       <c r="E1612">
         <v>1</v>
@@ -41887,7 +41977,7 @@
         <v>45887</v>
       </c>
       <c r="D1613">
-        <v>127.5</v>
+        <v>311.5</v>
       </c>
       <c r="E1613">
         <v>1</v>
@@ -41907,7 +41997,7 @@
         <v>45888</v>
       </c>
       <c r="D1614">
-        <v>87</v>
+        <v>271</v>
       </c>
       <c r="E1614">
         <v>1</v>
@@ -41927,7 +42017,7 @@
         <v>45889</v>
       </c>
       <c r="D1615">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="E1615">
         <v>1</v>
@@ -41947,7 +42037,7 @@
         <v>45890</v>
       </c>
       <c r="D1616">
-        <v>201.5</v>
+        <v>442</v>
       </c>
       <c r="E1616">
         <v>1</v>
@@ -41967,7 +42057,7 @@
         <v>45891</v>
       </c>
       <c r="D1617">
-        <v>0</v>
+        <v>240.5</v>
       </c>
       <c r="E1617">
         <v>1</v>
@@ -41979,6 +42069,686 @@
         <v>1</v>
       </c>
       <c r="I1617" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:9">
+      <c r="A1618" s="2">
+        <v>45895</v>
+      </c>
+      <c r="D1618">
+        <v>378</v>
+      </c>
+      <c r="E1618">
+        <v>1</v>
+      </c>
+      <c r="F1618">
+        <v>1</v>
+      </c>
+      <c r="G1618">
+        <v>1</v>
+      </c>
+      <c r="I1618" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:9">
+      <c r="A1619" s="2">
+        <v>45896</v>
+      </c>
+      <c r="D1619">
+        <v>442.5</v>
+      </c>
+      <c r="E1619">
+        <v>1</v>
+      </c>
+      <c r="F1619">
+        <v>1</v>
+      </c>
+      <c r="G1619">
+        <v>1</v>
+      </c>
+      <c r="I1619" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:9">
+      <c r="A1620" s="2">
+        <v>45897</v>
+      </c>
+      <c r="D1620">
+        <v>301.5</v>
+      </c>
+      <c r="E1620">
+        <v>1</v>
+      </c>
+      <c r="F1620">
+        <v>1</v>
+      </c>
+      <c r="G1620">
+        <v>1</v>
+      </c>
+      <c r="I1620" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:9">
+      <c r="A1621" s="2">
+        <v>45898</v>
+      </c>
+      <c r="D1621">
+        <v>458.5</v>
+      </c>
+      <c r="E1621">
+        <v>1</v>
+      </c>
+      <c r="F1621">
+        <v>1</v>
+      </c>
+      <c r="G1621">
+        <v>1</v>
+      </c>
+      <c r="I1621" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:9">
+      <c r="A1622" s="2">
+        <v>45901</v>
+      </c>
+      <c r="D1622">
+        <v>24</v>
+      </c>
+      <c r="E1622">
+        <v>1</v>
+      </c>
+      <c r="F1622">
+        <v>1</v>
+      </c>
+      <c r="G1622">
+        <v>1</v>
+      </c>
+      <c r="I1622" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:9">
+      <c r="A1623" s="2">
+        <v>45902</v>
+      </c>
+      <c r="D1623">
+        <v>0</v>
+      </c>
+      <c r="E1623">
+        <v>1</v>
+      </c>
+      <c r="F1623">
+        <v>1</v>
+      </c>
+      <c r="G1623">
+        <v>1</v>
+      </c>
+      <c r="I1623" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:9">
+      <c r="A1624" s="2">
+        <v>45903</v>
+      </c>
+      <c r="D1624">
+        <v>150.5</v>
+      </c>
+      <c r="E1624">
+        <v>1</v>
+      </c>
+      <c r="F1624">
+        <v>1</v>
+      </c>
+      <c r="G1624">
+        <v>1</v>
+      </c>
+      <c r="I1624" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:9">
+      <c r="A1625" s="2">
+        <v>45904</v>
+      </c>
+      <c r="D1625">
+        <v>0</v>
+      </c>
+      <c r="E1625">
+        <v>1</v>
+      </c>
+      <c r="F1625">
+        <v>1</v>
+      </c>
+      <c r="G1625">
+        <v>1</v>
+      </c>
+      <c r="I1625" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:9">
+      <c r="A1626" s="2">
+        <v>45905</v>
+      </c>
+      <c r="D1626">
+        <v>0</v>
+      </c>
+      <c r="E1626">
+        <v>1</v>
+      </c>
+      <c r="F1626">
+        <v>1</v>
+      </c>
+      <c r="G1626">
+        <v>1</v>
+      </c>
+      <c r="I1626" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:9">
+      <c r="A1627" s="2">
+        <v>45908</v>
+      </c>
+      <c r="D1627">
+        <v>0</v>
+      </c>
+      <c r="E1627">
+        <v>1</v>
+      </c>
+      <c r="F1627">
+        <v>1</v>
+      </c>
+      <c r="G1627">
+        <v>1</v>
+      </c>
+      <c r="I1627" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:9">
+      <c r="A1628" s="2">
+        <v>45909</v>
+      </c>
+      <c r="D1628">
+        <v>0</v>
+      </c>
+      <c r="E1628">
+        <v>1</v>
+      </c>
+      <c r="F1628">
+        <v>1</v>
+      </c>
+      <c r="G1628">
+        <v>1</v>
+      </c>
+      <c r="I1628" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:9">
+      <c r="A1629" s="2">
+        <v>45910</v>
+      </c>
+      <c r="D1629">
+        <v>0</v>
+      </c>
+      <c r="E1629">
+        <v>1</v>
+      </c>
+      <c r="F1629">
+        <v>1</v>
+      </c>
+      <c r="G1629">
+        <v>1</v>
+      </c>
+      <c r="I1629" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:9">
+      <c r="A1630" s="2">
+        <v>45911</v>
+      </c>
+      <c r="D1630">
+        <v>0</v>
+      </c>
+      <c r="E1630">
+        <v>1</v>
+      </c>
+      <c r="F1630">
+        <v>1</v>
+      </c>
+      <c r="G1630">
+        <v>1</v>
+      </c>
+      <c r="I1630" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:9">
+      <c r="A1631" s="2">
+        <v>45912</v>
+      </c>
+      <c r="D1631">
+        <v>137</v>
+      </c>
+      <c r="E1631">
+        <v>1</v>
+      </c>
+      <c r="F1631">
+        <v>1</v>
+      </c>
+      <c r="G1631">
+        <v>1</v>
+      </c>
+      <c r="I1631" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:9">
+      <c r="A1632" s="2">
+        <v>45915</v>
+      </c>
+      <c r="D1632">
+        <v>197</v>
+      </c>
+      <c r="E1632">
+        <v>1</v>
+      </c>
+      <c r="F1632">
+        <v>1</v>
+      </c>
+      <c r="G1632">
+        <v>1</v>
+      </c>
+      <c r="I1632" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:9">
+      <c r="A1633" s="2">
+        <v>45916</v>
+      </c>
+      <c r="D1633">
+        <v>340.5</v>
+      </c>
+      <c r="E1633">
+        <v>1</v>
+      </c>
+      <c r="F1633">
+        <v>1</v>
+      </c>
+      <c r="G1633">
+        <v>1</v>
+      </c>
+      <c r="I1633" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:9">
+      <c r="A1634" s="2">
+        <v>45917</v>
+      </c>
+      <c r="D1634">
+        <v>273.5</v>
+      </c>
+      <c r="E1634">
+        <v>1</v>
+      </c>
+      <c r="F1634">
+        <v>1</v>
+      </c>
+      <c r="G1634">
+        <v>1</v>
+      </c>
+      <c r="I1634" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:9">
+      <c r="A1635" s="2">
+        <v>45918</v>
+      </c>
+      <c r="D1635">
+        <v>0</v>
+      </c>
+      <c r="E1635">
+        <v>1</v>
+      </c>
+      <c r="F1635">
+        <v>1</v>
+      </c>
+      <c r="G1635">
+        <v>1</v>
+      </c>
+      <c r="I1635" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:9">
+      <c r="A1636" s="2">
+        <v>45919</v>
+      </c>
+      <c r="D1636">
+        <v>37.5</v>
+      </c>
+      <c r="E1636">
+        <v>1</v>
+      </c>
+      <c r="F1636">
+        <v>1</v>
+      </c>
+      <c r="G1636">
+        <v>1</v>
+      </c>
+      <c r="I1636" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:9">
+      <c r="A1637" s="2">
+        <v>45922</v>
+      </c>
+      <c r="D1637">
+        <v>135</v>
+      </c>
+      <c r="E1637">
+        <v>1</v>
+      </c>
+      <c r="F1637">
+        <v>1</v>
+      </c>
+      <c r="G1637">
+        <v>1</v>
+      </c>
+      <c r="I1637" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:9">
+      <c r="A1638" s="2">
+        <v>45923</v>
+      </c>
+      <c r="D1638">
+        <v>291</v>
+      </c>
+      <c r="E1638">
+        <v>1</v>
+      </c>
+      <c r="F1638">
+        <v>1</v>
+      </c>
+      <c r="G1638">
+        <v>1</v>
+      </c>
+      <c r="I1638" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:9">
+      <c r="A1639" s="2">
+        <v>45924</v>
+      </c>
+      <c r="D1639">
+        <v>146.5</v>
+      </c>
+      <c r="E1639">
+        <v>1</v>
+      </c>
+      <c r="F1639">
+        <v>1</v>
+      </c>
+      <c r="G1639">
+        <v>1</v>
+      </c>
+      <c r="I1639" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:9">
+      <c r="A1640" s="2">
+        <v>45925</v>
+      </c>
+      <c r="D1640">
+        <v>158.5</v>
+      </c>
+      <c r="E1640">
+        <v>1</v>
+      </c>
+      <c r="F1640">
+        <v>1</v>
+      </c>
+      <c r="G1640">
+        <v>1</v>
+      </c>
+      <c r="I1640" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:9">
+      <c r="A1641" s="2">
+        <v>45926</v>
+      </c>
+      <c r="D1641">
+        <v>0</v>
+      </c>
+      <c r="E1641">
+        <v>1</v>
+      </c>
+      <c r="F1641">
+        <v>1</v>
+      </c>
+      <c r="G1641">
+        <v>1</v>
+      </c>
+      <c r="I1641" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:9">
+      <c r="A1642" s="2">
+        <v>45929</v>
+      </c>
+      <c r="D1642">
+        <v>126.5</v>
+      </c>
+      <c r="E1642">
+        <v>1</v>
+      </c>
+      <c r="F1642">
+        <v>1</v>
+      </c>
+      <c r="G1642">
+        <v>1</v>
+      </c>
+      <c r="I1642" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:9">
+      <c r="A1643" s="2">
+        <v>45930</v>
+      </c>
+      <c r="D1643">
+        <v>136</v>
+      </c>
+      <c r="E1643">
+        <v>1</v>
+      </c>
+      <c r="F1643">
+        <v>1</v>
+      </c>
+      <c r="G1643">
+        <v>1</v>
+      </c>
+      <c r="I1643" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:9">
+      <c r="A1644" s="2">
+        <v>45931</v>
+      </c>
+      <c r="D1644">
+        <v>0</v>
+      </c>
+      <c r="E1644">
+        <v>1</v>
+      </c>
+      <c r="F1644">
+        <v>1</v>
+      </c>
+      <c r="G1644">
+        <v>1</v>
+      </c>
+      <c r="I1644" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:9">
+      <c r="A1645" s="2">
+        <v>45932</v>
+      </c>
+      <c r="D1645">
+        <v>0</v>
+      </c>
+      <c r="E1645">
+        <v>1</v>
+      </c>
+      <c r="F1645">
+        <v>1</v>
+      </c>
+      <c r="G1645">
+        <v>1</v>
+      </c>
+      <c r="I1645" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:9">
+      <c r="A1646" s="2">
+        <v>45933</v>
+      </c>
+      <c r="D1646">
+        <v>122.5</v>
+      </c>
+      <c r="E1646">
+        <v>1</v>
+      </c>
+      <c r="F1646">
+        <v>1</v>
+      </c>
+      <c r="G1646">
+        <v>1</v>
+      </c>
+      <c r="I1646" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:9">
+      <c r="A1647" s="2">
+        <v>45936</v>
+      </c>
+      <c r="D1647">
+        <v>0</v>
+      </c>
+      <c r="E1647">
+        <v>1</v>
+      </c>
+      <c r="F1647">
+        <v>1</v>
+      </c>
+      <c r="G1647">
+        <v>1</v>
+      </c>
+      <c r="I1647" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:9">
+      <c r="A1648" s="2">
+        <v>45937</v>
+      </c>
+      <c r="D1648">
+        <v>0</v>
+      </c>
+      <c r="E1648">
+        <v>1</v>
+      </c>
+      <c r="F1648">
+        <v>1</v>
+      </c>
+      <c r="G1648">
+        <v>1</v>
+      </c>
+      <c r="I1648" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:9">
+      <c r="A1649" s="2">
+        <v>45938</v>
+      </c>
+      <c r="D1649">
+        <v>0</v>
+      </c>
+      <c r="E1649">
+        <v>1</v>
+      </c>
+      <c r="F1649">
+        <v>1</v>
+      </c>
+      <c r="G1649">
+        <v>1</v>
+      </c>
+      <c r="I1649" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:9">
+      <c r="A1650" s="2">
+        <v>45939</v>
+      </c>
+      <c r="D1650">
+        <v>108.5</v>
+      </c>
+      <c r="E1650">
+        <v>1</v>
+      </c>
+      <c r="F1650">
+        <v>1</v>
+      </c>
+      <c r="G1650">
+        <v>1</v>
+      </c>
+      <c r="I1650" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:9">
+      <c r="A1651" s="2">
+        <v>45940</v>
+      </c>
+      <c r="D1651">
+        <v>0</v>
+      </c>
+      <c r="E1651">
+        <v>1</v>
+      </c>
+      <c r="F1651">
+        <v>1</v>
+      </c>
+      <c r="G1651">
+        <v>1</v>
+      </c>
+      <c r="I1651" t="b">
         <v>0</v>
       </c>
     </row>
@@ -42073,7 +42843,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>112.36</v>
+        <v>112.33</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -42081,7 +42851,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -42089,7 +42859,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>70.94</v>
+        <v>70.56</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -42105,7 +42875,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>1616</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -42113,7 +42883,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>1522</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -42121,7 +42891,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>1387</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -42859,7 +43629,7 @@
         <v>91</v>
       </c>
       <c r="B82">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -42947,7 +43717,7 @@
         <v>102</v>
       </c>
       <c r="B93">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -42963,7 +43733,7 @@
         <v>104</v>
       </c>
       <c r="B95">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -42971,7 +43741,7 @@
         <v>105</v>
       </c>
       <c r="B96">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -42979,7 +43749,7 @@
         <v>106</v>
       </c>
       <c r="B97">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -42987,7 +43757,7 @@
         <v>107</v>
       </c>
       <c r="B98">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -43003,7 +43773,7 @@
         <v>109</v>
       </c>
       <c r="B100">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -43059,7 +43829,7 @@
         <v>116</v>
       </c>
       <c r="B107">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -43067,7 +43837,7 @@
         <v>117</v>
       </c>
       <c r="B108">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -43075,7 +43845,7 @@
         <v>118</v>
       </c>
       <c r="B109">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -43083,7 +43853,7 @@
         <v>119</v>
       </c>
       <c r="B110">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:2">
